--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Approving Manager</t>
   </si>
   <si>
-    <t>Cortez</t>
-  </si>
-  <si>
     <t>Select first</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Primary Physician</t>
   </si>
   <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>Select Primary physician</t>
   </si>
   <si>
@@ -246,105 +240,21 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[1]</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[1]</t>
-  </si>
-  <si>
-    <t>All Tab</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[2]</t>
   </si>
   <si>
     <t>Confirm Button</t>
   </si>
   <si>
-    <t>//*[@id="fl-input-333"]</t>
-  </si>
-  <si>
     <t>Search Patient</t>
   </si>
   <si>
-    <t>//*[@id="dialogContent_335"]/div[2]/div[1]/div[2]/button[3]</t>
-  </si>
-  <si>
     <t>Seach Button</t>
   </si>
   <si>
-    <t>//*[@id="ul-333"]/li[1]</t>
-  </si>
-  <si>
     <t>Select Patient</t>
   </si>
   <si>
-    <t>//*[@id="input_362"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_368"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_365"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-370"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-370"]/li[1]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_376"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_372"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_383"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_379"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-388"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_391"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-388"]/li[2]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_389"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-399"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-399"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="input_400"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_401"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_404"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_402"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_406"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_407"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_408"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_409"]</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
   </si>
   <si>
@@ -358,6 +268,102 @@
   </si>
   <si>
     <t>test7</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
+  </si>
+  <si>
+    <t>//*[@id="fl-input-392"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ul-392"]/li</t>
+  </si>
+  <si>
+    <t>//*[@id="dialogContent_394"]/div[2]/div[1]/div[2]/button[3]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_421"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_427"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_option_424"]</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>//*[@id="ul-429"]/li</t>
+  </si>
+  <si>
+    <t>//*[@id="fl-input-429"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_435"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_option_431"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_442"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_option_438"]</t>
+  </si>
+  <si>
+    <t>//*[@id="fl-input-447"]</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>//*[@id="ul-447"]/li</t>
+  </si>
+  <si>
+    <t>//*[@id="select_450"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_option_448"]</t>
+  </si>
+  <si>
+    <t>//*[@id="fl-input-458"]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_459"]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_460"]</t>
+  </si>
+  <si>
+    <t>//*[@id="select_463"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ul-458"]/li</t>
+  </si>
+  <si>
+    <t>//*[@id="select_option_461"]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_465"]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_466"]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_467"]</t>
+  </si>
+  <si>
+    <t>//*[@id="input_468"]</t>
   </si>
 </sst>
 </file>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -740,12 +746,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -754,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -762,10 +768,10 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -780,46 +786,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -834,98 +840,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -939,16 +942,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -962,13 +965,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -982,10 +988,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1002,16 +1008,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1025,13 +1028,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1045,50 +1051,50 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1105,10 +1111,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1125,96 +1131,93 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="60">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75">
+      <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1228,13 +1231,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1248,10 +1254,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1268,10 +1274,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
@@ -1288,79 +1294,76 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="75">
-      <c r="A30" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45">
+      <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1374,13 +1377,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1393,17 +1399,14 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
+      <c r="A34" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1417,16 +1420,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1440,119 +1443,119 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="30">
-      <c r="A37" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="75">
+      <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1566,16 +1569,16 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1589,16 +1592,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1612,144 +1615,167 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45">
+      <c r="A49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45">
+      <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[1]/md-content/form/div/md-datepicker/div[1]/input</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Edit Primary Physicians</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button</t>
-  </si>
-  <si>
     <t>Primary Physician</t>
   </si>
   <si>
@@ -213,15 +207,9 @@
     <t>PT</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[6]/md-content/button</t>
-  </si>
-  <si>
     <t>Submit</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[2]</t>
-  </si>
-  <si>
     <t>In Approval Tab</t>
   </si>
   <si>
@@ -282,88 +270,88 @@
     <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
   </si>
   <si>
-    <t>//*[@id="fl-input-392"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-392"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="dialogContent_394"]/div[2]/div[1]/div[2]/button[3]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_421"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_427"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_424"]</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>//*[@id="ul-429"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-429"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_435"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_431"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_442"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_438"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-447"]</t>
-  </si>
-  <si>
     <t>che</t>
   </si>
   <si>
-    <t>//*[@id="ul-447"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="select_450"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_448"]</t>
-  </si>
-  <si>
-    <t>//*[@id="fl-input-458"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_459"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_460"]</t>
-  </si>
-  <si>
-    <t>//*[@id="select_463"]</t>
-  </si>
-  <si>
-    <t>//*[@id="ul-458"]/li</t>
-  </si>
-  <si>
-    <t>//*[@id="select_option_461"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_465"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_466"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_467"]</t>
-  </si>
-  <si>
-    <t>//*[@id="input_468"]</t>
+    <t>//md-virtual-repeat-container[@class="md-autocomplete-suggestions-container md-whiteframe-z1 md-virtual-repeat-container md-orient-vertical md-cs-content-theme-theme"]/div/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//md-datepicker[@ng-model="vm.event.referralDate"]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.medicalRecordNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.admissionTransferStatus"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Approving Manager"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.admission.specialProgram"]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[3]</t>
+  </si>
+  <si>
+    <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button/i</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Physician"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.primaryPhysicianVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@aria-label="Primary Insurance"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.hicnumber"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.policyNumber"]</t>
+  </si>
+  <si>
+    <t>//md-select[@ng-model="vm.event.insuranceVerified"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.admission.authCode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.RN"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.OT"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
+  </si>
+  <si>
+    <t>//input[@name="patientKey"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Confirm"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('update', 'preauthForm' )"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.updateAdmission('inapproval', null, $event)"]</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -708,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -748,10 +736,10 @@
     </row>
     <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -768,10 +756,10 @@
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -788,10 +776,10 @@
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -803,29 +791,29 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -840,12 +828,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -860,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,78 +928,78 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1028,219 +1016,216 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="75">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="75">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1254,139 +1239,139 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45">
+      <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75">
+      <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="75">
-      <c r="A31" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1400,13 +1385,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1418,18 +1406,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
-        <v>50</v>
+    <row r="35" spans="1:7" ht="60">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1443,16 +1428,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1466,119 +1451,119 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30">
-      <c r="A38" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="3" t="s">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="75">
+      <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
-      <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="75">
-      <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1592,16 +1577,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1615,36 +1600,39 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1658,10 +1646,10 @@
     </row>
     <row r="46" spans="1:7" ht="30">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -1676,12 +1664,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="45">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -1696,12 +1684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7" ht="45">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -1716,18 +1704,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="45">
+    <row r="49" spans="1:7" ht="30">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1741,41 +1726,64 @@
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45">
+      <c r="A51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
         <v>3</v>
       </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
       <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30">
+      <c r="A52" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <v>1</v>
       </c>
     </row>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>update</t>
+  </si>
+  <si>
+    <t>lastname</t>
   </si>
 </sst>
 </file>
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:G47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -711,7 +714,7 @@
     <col min="5" max="16384" width="24.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -754,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -774,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -794,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -807,8 +810,11 @@
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="60">
+      <c r="H5" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -828,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -848,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:8" ht="60">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="75">
+    <row r="11" spans="1:8" ht="75">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -928,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -951,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -974,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:8" ht="30">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45">
+    <row r="50" spans="1:8" ht="45">
       <c r="A50" s="1" t="s">
         <v>66</v>
       </c>
@@ -1746,8 +1752,11 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="45">
+      <c r="H50" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
         <v>68</v>
       </c>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Physician and Insurance Info</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-collapsed/md-icon</t>
-  </si>
-  <si>
     <t>Edit Primary Physicians</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/button</t>
   </si>
   <si>
-    <t>test7</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -354,7 +348,16 @@
     <t>update</t>
   </si>
   <si>
+    <t>//md-card[@class="md-whiteframe-z1 _md md-cs-content-theme-theme flex"]/md-card-content/md-expansion-panel-group/md-expansion-panel[2]</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -701,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -739,10 +742,10 @@
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -759,10 +762,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -779,10 +782,10 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -799,16 +802,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>112</v>
@@ -816,10 +819,10 @@
     </row>
     <row r="6" spans="1:8" ht="60">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -836,10 +839,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -939,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -955,6 +958,9 @@
       </c>
       <c r="G12" s="1">
         <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -962,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -985,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1005,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1025,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1048,7 +1054,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1068,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1088,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1108,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1128,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1148,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1200,15 +1206,15 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1225,10 +1231,10 @@
     </row>
     <row r="26" spans="1:7" ht="75">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1245,16 +1251,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1268,10 +1274,10 @@
     </row>
     <row r="28" spans="1:7" ht="60">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>9</v>
@@ -1288,10 +1294,10 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1308,10 +1314,10 @@
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -1331,7 +1337,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -1348,11 +1354,11 @@
     </row>
     <row r="32" spans="1:7" ht="75">
       <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1366,170 +1372,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="45">
+    <row r="33" spans="1:8" ht="45">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60">
+      <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="60">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45">
+      <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="45">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1541,81 +1550,81 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:8" ht="30">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="75">
+      <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="75">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1627,18 +1636,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1650,12 +1659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -1670,32 +1679,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:8" ht="30">
       <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45">
+      <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="45">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -1712,10 +1721,10 @@
     </row>
     <row r="49" spans="1:8" ht="30">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -1732,16 +1741,16 @@
     </row>
     <row r="50" spans="1:8" ht="45">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
@@ -1758,10 +1767,10 @@
     </row>
     <row r="51" spans="1:8" ht="45">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -1778,10 +1787,10 @@
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>9</v>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75">
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>113</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60">
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60">
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75">
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45">
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>113</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60">
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="75">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45">
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30">
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45">
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>112</v>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
@@ -777,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="60">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="75">
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30">
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>113</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30">
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45">
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60">
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60">
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30">
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75">
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45">
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>113</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60">
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="45">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30">
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="75">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45">
@@ -1716,7 +1716,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30">
@@ -1736,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45">
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>112</v>
@@ -1782,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30">

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -339,25 +339,37 @@
     <t>//button[@aria-label="Confirm"]</t>
   </si>
   <si>
-    <t>//button[@ng-click="vm.updateAdmission('update', 'preauthForm' )"]</t>
+    <t>update</t>
+  </si>
+  <si>
+    <t>//md-card[@class="md-whiteframe-z1 _md md-cs-content-theme-theme flex"]/md-card-content/md-expansion-panel-group/md-expansion-panel[2]</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>//md-sidenav[@md-component-id="preauthinfo-sidenav"]/md-content/button</t>
   </si>
   <si>
     <t>//button[@ng-click="vm.updateAdmission('inapproval', null, $event)"]</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>//md-card[@class="md-whiteframe-z1 _md md-cs-content-theme-theme flex"]/md-card-content/md-expansion-panel-group/md-expansion-panel[2]</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>//md-toast/div/span</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>//div[@class="pg-loading-screen pg-loading pg-loaded"]/div/div/div[@class="pg-loading-center-middle"]</t>
+  </si>
+  <si>
+    <t>Updating</t>
   </si>
 </sst>
 </file>
@@ -702,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:G51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -811,10 +823,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
@@ -960,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -1209,250 +1221,229 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="75">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60">
-      <c r="A28" s="1" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60">
+      <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="45">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75">
+      <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45">
-      <c r="A33" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="60">
-      <c r="A35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -1464,18 +1455,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
+    <row r="37" spans="1:8" ht="60">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1489,13 +1477,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1507,15 +1498,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="45">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
+    <row r="39" spans="1:8">
+      <c r="A39" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -1529,102 +1523,96 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30">
-      <c r="A41" s="1" t="s">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="75">
-      <c r="A42" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="75">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -1638,10 +1626,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
@@ -1659,52 +1647,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30">
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30">
+      <c r="A48" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="45">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -1716,15 +1710,15 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="30">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -1739,38 +1733,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="45">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -1779,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -1787,26 +1766,115 @@
     </row>
     <row r="52" spans="1:8" ht="30">
       <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>3</v>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -192,15 +192,9 @@
     <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[2]/md-card[2]/md-card-actions/button</t>
   </si>
   <si>
-    <t>RN</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
     <t>PT</t>
   </si>
   <si>
@@ -322,12 +316,6 @@
   </si>
   <si>
     <t>//input[@ng-model="vm.admission.authCode"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.preAuth.RN"]</t>
-  </si>
-  <si>
-    <t>//input[@ng-model="vm.event.preAuth.OT"]</t>
   </si>
   <si>
     <t>//input[@ng-model="vm.event.preAuth.PT"]</t>
@@ -714,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -754,10 +742,10 @@
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -774,10 +762,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -794,10 +782,10 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -814,27 +802,27 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -851,10 +839,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -954,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -972,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -980,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -1003,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1023,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1043,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1066,7 +1054,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1086,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1106,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1126,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1146,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1166,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1223,13 +1211,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45">
@@ -1237,7 +1225,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1257,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1277,13 +1265,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1300,7 +1288,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1320,7 +1308,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -1340,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -1377,13 +1365,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="75">
@@ -1429,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1437,7 +1425,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
@@ -1460,7 +1448,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -1480,7 +1468,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
@@ -1503,7 +1491,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
@@ -1526,7 +1514,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -1546,7 +1534,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
@@ -1566,7 +1554,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -1626,16 +1614,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1647,101 +1635,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="30">
       <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30">
+      <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45">
+      <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
-      <c r="A48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
+      <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="45">
@@ -1752,7 +1734,10 @@
         <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1761,10 +1746,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -1784,18 +1772,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="45">
+    <row r="53" spans="1:8" ht="30">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1804,72 +1789,29 @@
         <v>1</v>
       </c>
       <c r="G53" s="1">
-        <v>3</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="45">
-      <c r="A56" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -258,9 +258,6 @@
     <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>che</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>Updating</t>
+  </si>
+  <si>
+    <t>user1</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -805,16 +805,16 @@
         <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
@@ -822,7 +822,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -842,7 +842,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -942,7 +942,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -968,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -991,7 +991,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1011,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1031,13 +1031,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1074,7 +1074,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1094,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1114,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1134,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1154,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45">
@@ -1225,7 +1225,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1245,7 +1245,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
@@ -1265,13 +1265,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
@@ -1308,7 +1308,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
@@ -1328,7 +1328,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="75">
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1425,7 +1425,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>17</v>
@@ -1448,7 +1448,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
@@ -1468,7 +1468,7 @@
         <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
@@ -1491,7 +1491,7 @@
         <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
@@ -1514,7 +1514,7 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
@@ -1534,7 +1534,7 @@
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>9</v>
@@ -1554,7 +1554,7 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -1617,7 +1617,7 @@
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>17</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>9</v>
@@ -1660,7 +1660,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -1677,13 +1677,13 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45">
@@ -1737,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45">
@@ -1794,24 +1794,24 @@
     </row>
     <row r="54" spans="1:8" ht="45">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/resources/admissionForOldPatient.xlsx
+++ b/resources/admissionForOldPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Kaiser Transfer</t>
   </si>
   <si>
-    <t>Approving Manager</t>
-  </si>
-  <si>
-    <t>Select first</t>
-  </si>
-  <si>
     <t>Patient Discharge Status</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>Pre-auth Info</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[2]/md-card[2]/md-card-actions/button</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>Start SOC</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[1]</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[2]</t>
   </si>
   <si>
@@ -234,30 +222,12 @@
     <t>Select Patient</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/div/div/div/div[2]/form/input</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/button</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[9]/button</t>
-  </si>
-  <si>
     <t>Admission</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div/section/div[1]/button</t>
-  </si>
-  <si>
     <t>che</t>
   </si>
   <si>
@@ -276,9 +246,6 @@
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[1]</t>
   </si>
   <si>
-    <t>//input[@aria-label="Approving Manager"]</t>
-  </si>
-  <si>
     <t>//md-select[@ng-model="vm.admission.patientDischargeStatus"]</t>
   </si>
   <si>
@@ -291,9 +258,6 @@
     <t>//div[@class="_md-select-menu-container md-cs-content-theme-theme _md-active _md-clickable"]/md-select-menu/md-content/md-option[2]</t>
   </si>
   <si>
-    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button/i</t>
-  </si>
-  <si>
     <t>//input[@aria-label="Primary Physician"]</t>
   </si>
   <si>
@@ -324,12 +288,6 @@
     <t>//button[@aria-label="Confirm"]</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>//md-card[@class="md-whiteframe-z1 _md md-cs-content-theme-theme flex"]/md-card-content/md-expansion-panel-group/md-expansion-panel[2]</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
@@ -339,12 +297,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>//md-sidenav[@md-component-id="preauthinfo-sidenav"]/md-content/button</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.updateAdmission('inapproval', null, $event)"]</t>
-  </si>
-  <si>
     <t>//md-toast/div/span</t>
   </si>
   <si>
@@ -357,7 +309,40 @@
     <t>Updating</t>
   </si>
   <si>
-    <t>user1</t>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-collapsed/md-icon</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[1]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-content/md-expansion-panel-group/md-expansion-panel[2]/md-expansion-panel-expanded/md-expansion-panel-content/div[1]/md-card[2]/md-card-actions/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-sidenav[6]/md-content/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[3]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[1]/button[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/div/div/div/div[2]/form/input</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/md-content/md-content/div[3]/md-content/md-list/md-list-item/div/button</t>
+  </si>
+  <si>
+    <t>//*[@id="ui-admin-email"]/md-content/md-card/md-card-content/div/md-card/md-card-actions/button[2]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[10]/button</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/md-content/div/section/div[1]/button</t>
   </si>
 </sst>
 </file>
@@ -702,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15"/>
@@ -742,10 +727,10 @@
     </row>
     <row r="2" spans="1:8" ht="30">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -762,10 +747,10 @@
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -782,10 +767,10 @@
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -802,27 +787,27 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="60">
       <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -839,10 +824,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -942,7 +927,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -950,17 +935,11 @@
       <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30">
@@ -968,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>17</v>
@@ -991,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>9</v>
@@ -1011,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -1026,18 +1005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1049,12 +1025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -1069,12 +1045,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -1089,12 +1065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45">
+    <row r="19" spans="1:8" ht="45">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1109,33 +1085,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:8" ht="45">
       <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,12 +1125,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1169,32 +1145,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -1206,29 +1173,41 @@
         <v>1</v>
       </c>
       <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="75">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1239,16 +1218,22 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="75">
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1260,38 +1245,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8" ht="60">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1303,15 +1288,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1323,9 +1311,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>85</v>
@@ -1343,241 +1331,220 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30">
+    <row r="32" spans="1:8" ht="45">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="75">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="75">
-      <c r="A34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45">
-      <c r="A35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="D37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60">
+      <c r="A38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45">
+      <c r="A40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="60">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45">
-      <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:7" ht="75">
+      <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30">
-      <c r="A43" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
@@ -1586,116 +1553,125 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="75">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30">
+      <c r="A49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30">
-      <c r="A46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30">
-      <c r="A47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="45">
-      <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
@@ -1704,40 +1680,40 @@
       </c>
       <c r="G49" s="1">
         <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30">
       <c r="A50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30">
+      <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="45">
-      <c r="A51" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -1746,72 +1722,29 @@
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="45">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45">
-      <c r="A54" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
